--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterWaveCallRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterWaveCallRuleCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61097D2-E184-43E6-99CC-948950297EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A541CF17-7886-4A0E-8C9B-B798FAA416F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -138,9 +127,6 @@
     <t>Monster1_1</t>
   </si>
   <si>
-    <t>Monster3_1</t>
-  </si>
-  <si>
     <t>怪物等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -187,6 +173,42 @@
   </si>
   <si>
     <t>MonsterWaveCallRule_Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次结束奖励金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveRewardGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster7_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster8_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster5_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster9_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -281,17 +303,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -312,6 +323,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -322,32 +346,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,36 +652,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="5" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -665,18 +690,20 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -694,8 +721,9 @@
       <c r="AC1"/>
       <c r="AD1"/>
       <c r="AE1"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF1"/>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,28 +732,28 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -743,8 +771,9 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF2"/>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -753,14 +782,14 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -778,8 +807,9 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF3"/>
+    </row>
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -787,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
@@ -796,18 +826,20 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4"/>
+      <c r="H4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -825,8 +857,9 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -844,7 +877,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5"/>
+      <c r="N5" s="4"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -862,48 +895,51 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-    </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
@@ -921,228 +957,406 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>15</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>48</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>60</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10">
+        <v>4</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>16</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>16</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>24</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>12</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <v>12</v>
+      </c>
+      <c r="I14" s="10">
         <v>36</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7">
+      <c r="J14" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>32</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>15</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H17" s="10">
+        <v>5</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
         <v>60</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K18" s="10">
         <v>2</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <v>2</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8">
-        <v>10</v>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+      <c r="N18" s="11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H4:N4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterWaveCallRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterWaveCallRuleCfg.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEAB071-F2A0-4623-9A8B-8892E2E86DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8043F1CA-8ADE-4244-8E46-F8A7A4068941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -214,6 +227,124 @@
   </si>
   <si>
     <t>Monster7_1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Infinite</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_9_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_9_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_10_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_10_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_11_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_11_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_12_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_12_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_13_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_13_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_14_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_14_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_15_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_15_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_16_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_16_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_17_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_17_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_18_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_18_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_19_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_19_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_20_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_20_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57:J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2471,6 +2602,1234 @@
         <v>20</v>
       </c>
     </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>24</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>20</v>
+      </c>
+      <c r="J57" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="K57" s="13">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" s="13">
+        <v>1</v>
+      </c>
+      <c r="N57" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>24</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>60</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>24</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>20</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>20</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>20</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>20</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>24</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>24</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>20</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>20</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>24</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>20</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>10</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>24</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>20</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>40</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>24</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>20</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>3</v>
+      </c>
+      <c r="J71" s="1">
+        <v>8</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="1">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>24</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>20</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>24</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="1">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>20</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>20</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>24</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>20</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>10</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="1">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>24</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>20</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>40</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="1">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>24</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>20</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3</v>
+      </c>
+      <c r="J81" s="1">
+        <v>8</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="1">
+        <v>15</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>24</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>20</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>24</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="1">
+        <v>16</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>24</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>20</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>20</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M85" s="1">
+        <v>1</v>
+      </c>
+      <c r="N85" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="1">
+        <v>17</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>24</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>20</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>10</v>
+      </c>
+      <c r="J87" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M87" s="1">
+        <v>1</v>
+      </c>
+      <c r="N87" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="1">
+        <v>18</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>24</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>20</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>40</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="1">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>24</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>20</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>3</v>
+      </c>
+      <c r="J91" s="1">
+        <v>8</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+      <c r="N91" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="1">
+        <v>20</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>24</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>20</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>24</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:N1"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterWaveCallRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterWaveCallRuleCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7922B268-E6B4-4565-8A71-F9552B74D273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D7E1B-8CA4-41EF-83E3-8AF318123A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="394">
   <si>
     <t>##var</t>
   </si>
@@ -630,24 +630,6 @@
     <t>Monster_Challenge1_3_2</t>
   </si>
   <si>
-    <t>挑战关卡1第4波</t>
-  </si>
-  <si>
-    <t>Monster_Challenge1_4_1</t>
-  </si>
-  <si>
-    <t>Monster_Challenge1_4_2</t>
-  </si>
-  <si>
-    <t>挑战关卡1第5波</t>
-  </si>
-  <si>
-    <t>Monster_Challenge1_5_1</t>
-  </si>
-  <si>
-    <t>Monster_Challenge1_5_2</t>
-  </si>
-  <si>
     <t>MonsterWaveCallRule_Challenge2</t>
   </si>
   <si>
@@ -673,30 +655,6 @@
   </si>
   <si>
     <t>Monster_Challenge2_3_2</t>
-  </si>
-  <si>
-    <t>挑战关卡2第4波</t>
-  </si>
-  <si>
-    <t>Monster_Challenge2_4_1</t>
-  </si>
-  <si>
-    <t>Monster_Challenge2_4_2</t>
-  </si>
-  <si>
-    <t>Monster_Challenge2_4_3</t>
-  </si>
-  <si>
-    <t>挑战关卡2第5波</t>
-  </si>
-  <si>
-    <t>Monster_Challenge2_5_1</t>
-  </si>
-  <si>
-    <t>Monster_Challenge2_5_2</t>
-  </si>
-  <si>
-    <t>Monster_Challenge2_5_3</t>
   </si>
   <si>
     <t>MonsterWaveCallRule_Challenge3</t>
@@ -1332,6 +1290,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1947,10 +1906,10 @@
   <dimension ref="A1:R433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2032,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>14</v>
@@ -2131,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>28</v>
@@ -2152,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>34</v>
@@ -2166,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -2187,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="M7" s="10">
         <v>1</v>
@@ -2234,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -2255,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="M11" s="10">
         <v>1</v>
@@ -2302,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -2323,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M15" s="10">
         <v>1</v>
@@ -2352,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="M16" s="10">
         <v>1</v>
@@ -2381,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M17" s="10">
         <v>1</v>
@@ -2878,322 +2837,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="10">
-        <v>4</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>180</v>
-      </c>
-      <c r="I32" s="10">
-        <v>58</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K32" s="10">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="M32" s="10">
-        <v>1</v>
-      </c>
-      <c r="O32" s="10">
-        <v>4</v>
-      </c>
-      <c r="P32" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>4</v>
-      </c>
-      <c r="R32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="10">
-        <v>12</v>
-      </c>
-      <c r="J33" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="K33" s="10">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="10">
-        <v>1</v>
-      </c>
-      <c r="O33" s="10">
-        <v>17</v>
-      </c>
-      <c r="P33" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>4</v>
-      </c>
-      <c r="R33" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P34" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>4</v>
-      </c>
-      <c r="R34" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P35" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>4</v>
-      </c>
-      <c r="R35" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="10">
-        <v>5</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>180</v>
-      </c>
-      <c r="I36" s="10">
-        <v>67</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="M36" s="10">
-        <v>1</v>
-      </c>
-      <c r="O36" s="10">
-        <v>3</v>
-      </c>
-      <c r="P36" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>5</v>
-      </c>
-      <c r="R36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F37" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="10">
-        <v>27</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="M37" s="10">
-        <v>1</v>
-      </c>
-      <c r="O37" s="10">
-        <v>10</v>
-      </c>
-      <c r="P37" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>5</v>
-      </c>
-      <c r="R37" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P38" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>5</v>
-      </c>
-      <c r="R38" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>5</v>
-      </c>
-      <c r="R39" s="10">
-        <v>4</v>
-      </c>
-    </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F40" s="10">
         <v>0</v>
@@ -3211,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M40" s="10">
         <v>1</v>
@@ -3345,13 +2997,13 @@
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F44" s="10">
         <v>0</v>
@@ -3369,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M44" s="10">
         <v>1</v>
@@ -3407,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M45" s="10">
         <v>1</v>
@@ -3503,13 +3155,13 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="C48" s="10">
-        <v>3</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="F48" s="10">
         <v>0</v>
@@ -3527,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M48" s="10">
         <v>1</v>
@@ -3565,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M49" s="10">
         <v>1</v>
@@ -3659,322 +3311,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="10">
-        <v>4</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="10">
-        <v>180</v>
-      </c>
-      <c r="I52" s="10">
-        <v>18</v>
-      </c>
-      <c r="J52" s="10">
-        <v>1</v>
-      </c>
-      <c r="K52" s="10">
-        <v>1</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="M52" s="10">
-        <v>1</v>
-      </c>
-      <c r="O52" s="10">
-        <v>4</v>
-      </c>
-      <c r="P52" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="10">
-        <v>4</v>
-      </c>
-      <c r="R52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D53" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I53" s="10">
-        <v>44</v>
-      </c>
-      <c r="J53" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K53" s="10">
-        <v>1</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="M53" s="10">
-        <v>1</v>
-      </c>
-      <c r="O53" s="10">
-        <v>2</v>
-      </c>
-      <c r="P53" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="10">
-        <v>4</v>
-      </c>
-      <c r="R53" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D54" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I54" s="10">
-        <v>35</v>
-      </c>
-      <c r="J54" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K54" s="10">
-        <v>1</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="M54" s="10">
-        <v>1</v>
-      </c>
-      <c r="O54" s="10">
-        <v>8</v>
-      </c>
-      <c r="P54" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="10">
-        <v>4</v>
-      </c>
-      <c r="R54" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P55" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="10">
-        <v>4</v>
-      </c>
-      <c r="R55" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="10">
-        <v>5</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-      <c r="G56" s="10">
-        <v>180</v>
-      </c>
-      <c r="I56" s="10">
-        <v>67</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K56" s="10">
-        <v>1</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M56" s="10">
-        <v>1</v>
-      </c>
-      <c r="O56" s="10">
-        <v>2</v>
-      </c>
-      <c r="P56" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="10">
-        <v>5</v>
-      </c>
-      <c r="R56" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F57" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I57" s="10">
-        <v>100</v>
-      </c>
-      <c r="J57" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K57" s="10">
-        <v>1</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="M57" s="10">
-        <v>1</v>
-      </c>
-      <c r="O57" s="10">
-        <v>1</v>
-      </c>
-      <c r="P57" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="10">
-        <v>5</v>
-      </c>
-      <c r="R57" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F58" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I58" s="10">
-        <v>40</v>
-      </c>
-      <c r="J58" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K58" s="10">
-        <v>1</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="M58" s="10">
-        <v>1</v>
-      </c>
-      <c r="O58" s="10">
-        <v>5</v>
-      </c>
-      <c r="P58" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="10">
-        <v>5</v>
-      </c>
-      <c r="R58" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P59" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="10">
-        <v>5</v>
-      </c>
-      <c r="R59" s="10">
-        <v>4</v>
-      </c>
-    </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C60" s="10">
         <v>1</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F60" s="10">
         <v>0</v>
@@ -3992,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="M60" s="10">
         <v>1</v>
@@ -4135,13 +3480,13 @@
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C64" s="10">
         <v>2</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F64" s="10">
         <v>0</v>
@@ -4159,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="M64" s="10">
         <v>1</v>
@@ -4200,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M65" s="10">
         <v>1</v>
@@ -4302,13 +3647,13 @@
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F68" s="10">
         <v>0</v>
@@ -4326,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M68" s="10">
         <v>1</v>
@@ -4367,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="M69" s="10">
         <v>1</v>
@@ -4469,13 +3814,13 @@
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C72" s="10">
         <v>4</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
@@ -4493,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="M72" s="10">
         <v>1</v>
@@ -4534,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="M73" s="10">
         <v>1</v>
@@ -4575,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="M74" s="10">
         <v>1</v>
@@ -4636,13 +3981,13 @@
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C76" s="10">
         <v>5</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F76" s="10">
         <v>0</v>
@@ -4660,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="M76" s="10">
         <v>1</v>
@@ -4701,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="M77" s="10">
         <v>1</v>
@@ -4742,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="M78" s="10">
         <v>1</v>
@@ -4803,13 +4148,13 @@
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="10" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C80" s="10">
         <v>1</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F80" s="10">
         <v>0</v>
@@ -4827,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="M80" s="10">
         <v>1</v>
@@ -4961,13 +4306,13 @@
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F84" s="10">
         <v>0</v>
@@ -4985,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="M84" s="10">
         <v>1</v>
@@ -5023,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="M85" s="10">
         <v>1</v>
@@ -5119,13 +4464,13 @@
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="10" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C88" s="10">
         <v>3</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F88" s="10">
         <v>0</v>
@@ -5143,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="M88" s="10">
         <v>1</v>
@@ -5181,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M89" s="10">
         <v>1</v>
@@ -5277,13 +4622,13 @@
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C92" s="10">
         <v>4</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F92" s="10">
         <v>0</v>
@@ -5301,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="M92" s="10">
         <v>1</v>
@@ -5339,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="M93" s="10">
         <v>1</v>
@@ -5435,13 +4780,13 @@
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" s="10" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C96" s="10">
         <v>5</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F96" s="10">
         <v>0</v>
@@ -5459,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="M96" s="10">
         <v>1</v>
@@ -5494,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="M97" s="10">
         <v>1</v>
@@ -5584,13 +4929,13 @@
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C100" s="10">
         <v>1</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F100" s="10">
         <v>0</v>
@@ -5608,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M100" s="10">
         <v>1</v>
@@ -5742,13 +5087,13 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C104" s="10">
         <v>2</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F104" s="10">
         <v>0</v>
@@ -5766,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="M104" s="10">
         <v>1</v>
@@ -5804,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="M105" s="10">
         <v>1</v>
@@ -5900,13 +5245,13 @@
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B108" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C108" s="10">
         <v>3</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F108" s="10">
         <v>0</v>
@@ -5924,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="M108" s="10">
         <v>1</v>
@@ -5962,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="M109" s="10">
         <v>1</v>
@@ -6000,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="M110" s="10">
         <v>1</v>
@@ -6058,13 +5403,13 @@
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C112" s="10">
         <v>4</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F112" s="10">
         <v>0</v>
@@ -6082,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="M112" s="10">
         <v>1</v>
@@ -6120,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M113" s="10">
         <v>1</v>
@@ -6216,13 +5561,13 @@
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B116" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C116" s="10">
         <v>5</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F116" s="10">
         <v>0</v>
@@ -6240,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="M116" s="10">
         <v>1</v>
@@ -6275,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="M117" s="10">
         <v>1</v>
@@ -6310,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="M118" s="10">
         <v>1</v>
@@ -6345,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="M119" s="10">
         <v>1</v>
@@ -6365,13 +5710,13 @@
     </row>
     <row r="120" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F120" s="11">
         <v>0</v>
@@ -6389,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="M120" s="11">
         <v>1</v>
@@ -6431,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="M121" s="11">
         <v>1</v>
@@ -6536,13 +5881,13 @@
     </row>
     <row r="124" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C124" s="11">
         <v>2</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F124" s="11">
         <v>0</v>
@@ -6560,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="M124" s="11">
         <v>1</v>
@@ -6602,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="12" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="M125" s="11">
         <v>1</v>
@@ -6707,13 +6052,13 @@
     </row>
     <row r="128" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C128" s="11">
         <v>3</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F128" s="11">
         <v>0</v>
@@ -6731,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="M128" s="11">
         <v>1</v>
@@ -6773,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="M129" s="11">
         <v>1</v>
@@ -6815,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="M130" s="11">
         <v>1</v>
@@ -6878,13 +6223,13 @@
     </row>
     <row r="132" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C132" s="11">
         <v>4</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F132" s="11">
         <v>0</v>
@@ -6902,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M132" s="11">
         <v>1</v>
@@ -6944,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="M133" s="11">
         <v>1</v>
@@ -6986,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="M134" s="11">
         <v>1</v>
@@ -7049,13 +6394,13 @@
     </row>
     <row r="136" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C136" s="11">
         <v>5</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F136" s="11">
         <v>0</v>
@@ -7073,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="L136" s="12" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="M136" s="11">
         <v>1</v>
@@ -7115,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M137" s="11">
         <v>1</v>
@@ -7157,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="L138" s="12" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="M138" s="11">
         <v>1</v>
@@ -7220,13 +6565,13 @@
     </row>
     <row r="140" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C140" s="11">
         <v>1</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F140" s="11">
         <v>0</v>
@@ -7244,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="L140" s="12" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="M140" s="11">
         <v>1</v>
@@ -7286,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="M141" s="11">
         <v>1</v>
@@ -7391,13 +6736,13 @@
     </row>
     <row r="144" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C144" s="11">
         <v>2</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F144" s="11">
         <v>0</v>
@@ -7415,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M144" s="11">
         <v>1</v>
@@ -7457,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M145" s="11">
         <v>1</v>
@@ -7499,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="M146" s="11">
         <v>1</v>
@@ -7562,13 +6907,13 @@
     </row>
     <row r="148" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C148" s="11">
         <v>3</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F148" s="11">
         <v>0</v>
@@ -7586,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="M148" s="11">
         <v>1</v>
@@ -7628,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="M149" s="11">
         <v>1</v>
@@ -7670,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M150" s="11">
         <v>1</v>
@@ -7733,13 +7078,13 @@
     </row>
     <row r="152" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C152" s="11">
         <v>4</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F152" s="11">
         <v>0</v>
@@ -7757,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="M152" s="11">
         <v>1</v>
@@ -7799,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M153" s="11">
         <v>1</v>
@@ -7841,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="M154" s="11">
         <v>1</v>
@@ -7883,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="M155" s="11">
         <v>1</v>
@@ -7904,13 +7249,13 @@
     </row>
     <row r="156" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C156" s="11">
         <v>5</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F156" s="11">
         <v>0</v>
@@ -7928,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M156" s="11">
         <v>1</v>
@@ -7970,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="M157" s="11">
         <v>1</v>
@@ -8012,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="M158" s="11">
         <v>1</v>
@@ -8054,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M159" s="11">
         <v>1</v>
@@ -8075,13 +7420,13 @@
     </row>
     <row r="160" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C160" s="11">
         <v>1</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F160" s="11">
         <v>0</v>
@@ -8099,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="M160" s="11">
         <v>1</v>
@@ -8141,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M161" s="11">
         <v>1</v>
@@ -8246,13 +7591,13 @@
     </row>
     <row r="164" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C164" s="11">
         <v>2</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F164" s="11">
         <v>0</v>
@@ -8270,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="M164" s="11">
         <v>1</v>
@@ -8312,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="M165" s="11">
         <v>1</v>
@@ -8354,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M166" s="11">
         <v>1</v>
@@ -8417,13 +7762,13 @@
     </row>
     <row r="168" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C168" s="11">
         <v>3</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F168" s="11">
         <v>0</v>
@@ -8441,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M168" s="11">
         <v>1</v>
@@ -8483,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="L169" s="12" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M169" s="11">
         <v>1</v>
@@ -8525,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="L170" s="12" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M170" s="11">
         <v>1</v>
@@ -8588,13 +7933,13 @@
     </row>
     <row r="172" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C172" s="11">
         <v>4</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F172" s="11">
         <v>0</v>
@@ -8612,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="L172" s="12" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M172" s="11">
         <v>1</v>
@@ -8654,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="12" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="M173" s="11">
         <v>1</v>
@@ -8696,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="L174" s="12" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M174" s="11">
         <v>1</v>
@@ -8738,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="L175" s="12" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M175" s="11">
         <v>1</v>
@@ -8759,13 +8104,13 @@
     </row>
     <row r="176" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C176" s="11">
         <v>5</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F176" s="11">
         <v>0</v>
@@ -8783,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="L176" s="12" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M176" s="11">
         <v>1</v>
@@ -8825,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="L177" s="12" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="M177" s="11">
         <v>1</v>
@@ -8867,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="L178" s="12" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="M178" s="11">
         <v>1</v>
@@ -8909,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="L179" s="12" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="M179" s="11">
         <v>1</v>
@@ -8930,13 +8275,13 @@
     </row>
     <row r="180" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="11" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C180" s="11">
         <v>1</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F180" s="11">
         <v>0</v>
@@ -8954,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="L180" s="12" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="M180" s="11">
         <v>1</v>
@@ -8996,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="12" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="M181" s="11">
         <v>1</v>
@@ -9101,13 +8446,13 @@
     </row>
     <row r="184" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="11" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C184" s="11">
         <v>2</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F184" s="11">
         <v>0</v>
@@ -9125,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="L184" s="12" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M184" s="11">
         <v>1</v>
@@ -9167,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="L185" s="12" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="M185" s="11">
         <v>1</v>
@@ -9209,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="L186" s="12" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="M186" s="11">
         <v>1</v>
@@ -9272,13 +8617,13 @@
     </row>
     <row r="188" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="11" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C188" s="11">
         <v>3</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F188" s="11">
         <v>0</v>
@@ -9296,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="L188" s="12" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M188" s="11">
         <v>1</v>
@@ -9338,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="L189" s="12" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M189" s="11">
         <v>1</v>
@@ -9380,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="L190" s="12" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="M190" s="11">
         <v>1</v>
@@ -9443,13 +8788,13 @@
     </row>
     <row r="192" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="11" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C192" s="11">
         <v>4</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F192" s="11">
         <v>0</v>
@@ -9467,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="L192" s="12" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="M192" s="11">
         <v>1</v>
@@ -9509,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="L193" s="12" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M193" s="11">
         <v>1</v>
@@ -9551,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="L194" s="12" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M194" s="11">
         <v>1</v>
@@ -9614,13 +8959,13 @@
     </row>
     <row r="196" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="11" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C196" s="11">
         <v>5</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F196" s="11">
         <v>0</v>
@@ -9638,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="L196" s="12" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M196" s="11">
         <v>1</v>
@@ -9680,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="L197" s="12" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M197" s="11">
         <v>1</v>
@@ -9722,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="12" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="M198" s="11">
         <v>1</v>
@@ -9785,13 +9130,13 @@
     </row>
     <row r="200" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C200" s="11">
         <v>1</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F200" s="11">
         <v>0</v>
@@ -9809,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="L200" s="12" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="M200" s="11">
         <v>1</v>
@@ -9851,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="L201" s="12" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M201" s="11">
         <v>1</v>
@@ -9956,13 +9301,13 @@
     </row>
     <row r="204" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C204" s="11">
         <v>2</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F204" s="11">
         <v>0</v>
@@ -9980,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="12" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M204" s="11">
         <v>1</v>
@@ -10022,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="12" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="M205" s="11">
         <v>1</v>
@@ -10064,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="12" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="M206" s="11">
         <v>1</v>
@@ -10127,13 +9472,13 @@
     </row>
     <row r="208" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C208" s="11">
         <v>3</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F208" s="11">
         <v>0</v>
@@ -10151,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="L208" s="12" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M208" s="11">
         <v>1</v>
@@ -10193,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="L209" s="12" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="M209" s="11">
         <v>1</v>
@@ -10235,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="L210" s="12" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="M210" s="11">
         <v>1</v>
@@ -10277,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="12" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M211" s="11">
         <v>1</v>
@@ -10298,13 +9643,13 @@
     </row>
     <row r="212" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C212" s="11">
         <v>4</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="F212" s="11">
         <v>0</v>
@@ -10322,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="12" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M212" s="11">
         <v>1</v>
@@ -10364,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="L213" s="12" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="M213" s="11">
         <v>1</v>
@@ -10406,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="L214" s="12" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M214" s="11">
         <v>1</v>
@@ -10469,13 +9814,13 @@
     </row>
     <row r="216" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C216" s="11">
         <v>5</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F216" s="11">
         <v>0</v>
@@ -10493,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="L216" s="12" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="M216" s="11">
         <v>1</v>
@@ -10535,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="L217" s="12" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="M217" s="11">
         <v>1</v>
@@ -10577,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="M218" s="11">
         <v>1</v>
@@ -10619,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="L219" s="12" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M219" s="11">
         <v>1</v>
@@ -10646,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F221" s="10">
         <v>0</v>
@@ -10804,7 +10149,7 @@
         <v>2</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F225" s="10">
         <v>0</v>
@@ -10962,7 +10307,7 @@
         <v>3</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F229" s="10">
         <v>0</v>
@@ -11120,7 +10465,7 @@
         <v>4</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F233" s="10">
         <v>0</v>
@@ -11278,7 +10623,7 @@
         <v>5</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F237" s="10">
         <v>0</v>
@@ -11436,7 +10781,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F241" s="10">
         <v>0</v>
@@ -11594,7 +10939,7 @@
         <v>7</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F245" s="10">
         <v>0</v>
@@ -11752,7 +11097,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F249" s="10">
         <v>0</v>
@@ -11910,7 +11255,7 @@
         <v>9</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F253" s="10">
         <v>0</v>
@@ -12068,7 +11413,7 @@
         <v>10</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F257" s="10">
         <v>0</v>
@@ -12226,7 +11571,7 @@
         <v>11</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F261" s="10">
         <v>0</v>
@@ -12384,7 +11729,7 @@
         <v>12</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F265" s="10">
         <v>0</v>
@@ -12542,7 +11887,7 @@
         <v>13</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F269" s="10">
         <v>0</v>
@@ -12700,7 +12045,7 @@
         <v>14</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F273" s="10">
         <v>0</v>
@@ -12858,7 +12203,7 @@
         <v>15</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F277" s="10">
         <v>0</v>
@@ -13016,7 +12361,7 @@
         <v>16</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F281" s="10">
         <v>0</v>
@@ -13174,7 +12519,7 @@
         <v>17</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F285" s="10">
         <v>0</v>
@@ -13332,7 +12677,7 @@
         <v>18</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F289" s="10">
         <v>0</v>
@@ -13490,7 +12835,7 @@
         <v>19</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F293" s="10">
         <v>0</v>
@@ -13648,7 +12993,7 @@
         <v>20</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F297" s="10">
         <v>0</v>
